--- a/External Data/reports/2017_termination_data.xlsx
+++ b/External Data/reports/2017_termination_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\20221214_IN_ab_gest\IN_ab_gest\External_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TedSc\OneDrive\Desktop\R Projects\indiana_abortion\External Data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBCED78-56DF-4A7E-AA3F-A839E6C44BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7DBC7-3F03-40E4-BC16-E640209B0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="105" windowWidth="14460" windowHeight="9925" tabRatio="821" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017_age" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2017_gestation" sheetId="8" r:id="rId8"/>
     <sheet name="2017_gestation_procedure" sheetId="9" r:id="rId9"/>
     <sheet name="2017_county" sheetId="10" r:id="rId10"/>
+    <sheet name="2017_monthly" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
   <si>
     <t xml:space="preserve">Age </t>
   </si>
@@ -546,6 +547,51 @@
   </si>
   <si>
     <t>Mifepristone Misoprostol</t>
+  </si>
+  <si>
+    <t>Resident Terminations_x000D_(n = 7,172)</t>
+  </si>
+  <si>
+    <t>Non-Resident Terminations_x000D_(n = 606)</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -1406,12 +1452,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1479,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1490,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1501,7 @@
         <v>7.46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1512,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +1523,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1534,7 @@
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1545,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1556,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1567,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -1538,9 +1584,9 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1560,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1580,7 +1626,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1600,7 +1646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1620,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1640,7 +1686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1660,7 +1706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1680,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1700,7 +1746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -1720,7 +1766,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1740,7 +1786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -1760,7 +1806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -1780,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1800,7 +1846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1820,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1840,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -1860,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1880,7 +1926,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -1900,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -1920,7 +1966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1940,7 +1986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -1960,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -1980,7 +2026,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -2000,7 +2046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -2020,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -2040,7 +2086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2060,7 +2106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2080,7 +2126,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -2100,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2120,7 +2166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -2140,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -2158,6 +2204,164 @@
       </c>
       <c r="F31" s="1">
         <v>7172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA90A5-75F6-4564-AE66-1E0C8C29E240}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>571</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3">
+        <v>617</v>
+      </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4">
+        <v>741</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5">
+        <v>584</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>588</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>554</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>513</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>632</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>588</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11">
+        <v>580</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>615</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>589</v>
+      </c>
+      <c r="C13">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2173,12 +2377,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2189,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2200,7 +2404,7 @@
         <v>56.51</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2415,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2426,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2437,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2244,7 +2448,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2255,7 +2459,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2266,7 +2470,7 @@
         <v>8.5500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2277,7 +2481,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2293,12 +2497,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2309,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2320,7 +2524,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2535,7 @@
         <v>91.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2342,7 +2546,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2358,13 +2562,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="27.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2590,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2397,7 +2601,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2408,7 +2612,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2623,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2430,7 +2634,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2441,7 +2645,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2452,7 +2656,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2463,7 +2667,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2474,7 +2678,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="5"/>
     </row>
   </sheetData>
@@ -2487,17 +2691,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2508,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -2519,7 +2723,7 @@
         <v>0.34713293905888404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -2530,7 +2734,7 @@
         <v>36.063255335561841</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2541,7 +2745,7 @@
         <v>63.551041398817176</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2552,7 +2756,7 @@
         <v>1.2856775520699408E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2563,7 +2767,7 @@
         <v>1.2856775520699408E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2574,7 +2778,7 @@
         <v>1.2856775520699408E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2602,13 +2806,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="53.54296875" customWidth="1"/>
     <col min="2" max="2" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -2622,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2636,7 +2840,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2650,7 +2854,7 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2664,7 +2868,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2678,7 +2882,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2692,7 +2896,7 @@
         <v>4.13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2706,7 +2910,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2720,7 +2924,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2734,7 +2938,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +2952,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2764,14 +2968,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2785,7 +2989,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2796,7 +3000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -2807,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2818,7 +3022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2829,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2840,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2851,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.75">
       <c r="C18" s="4"/>
     </row>
   </sheetData>
@@ -2867,13 +3071,13 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="18.1796875" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>156</v>
       </c>
@@ -2884,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -2895,7 +3099,7 @@
         <v>78.709999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -2906,7 +3110,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
@@ -2917,7 +3121,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -2928,7 +3132,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
@@ -2952,7 +3156,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="8.90625" style="6" customWidth="1"/>
     <col min="2" max="3" width="10" customWidth="1"/>
@@ -2960,7 +3164,7 @@
     <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>161</v>
       </c>
@@ -2977,7 +3181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -2994,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="6" t="s">
         <v>63</v>
       </c>
@@ -3011,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
@@ -3028,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -3045,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="6" t="s">
         <v>61</v>
       </c>
@@ -3062,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
